--- a/listy/Lista_istnienia.xlsx
+++ b/listy/Lista_istnienia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22035" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="22035" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_studentow" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Lp</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Gąsiewski Tomasz</t>
+  </si>
+  <si>
+    <t>Karol Adamczyk</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -582,6 +588,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,9 +644,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1048,9 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1047,7 +1069,9 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1066,7 +1090,9 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1085,7 +1111,9 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1104,7 +1132,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1123,7 +1153,9 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1142,7 +1174,9 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1161,7 +1195,9 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1180,7 +1216,9 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1199,7 +1237,9 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1218,7 +1258,9 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1237,7 +1279,9 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1256,7 +1300,9 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1275,7 +1321,9 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1294,7 +1342,9 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1313,7 +1363,9 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1332,7 +1384,9 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1351,7 +1405,9 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1370,7 +1426,9 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1389,7 +1447,9 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1408,7 +1468,9 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1427,7 +1489,9 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1446,14 +1510,33 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:I24">
+  <conditionalFormatting sqref="C25:E25 C2:I24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/listy/Lista_istnienia.xlsx
+++ b/listy/Lista_istnienia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="22035" windowHeight="9270"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20640" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_studentow" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Lp</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Lorek Ewa</t>
   </si>
   <si>
-    <t>Mita Miłosz</t>
-  </si>
-  <si>
     <t>Piętka Bartłomiej</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>Stankiewicz Michał</t>
   </si>
   <si>
-    <t>Winiewska Justyna</t>
-  </si>
-  <si>
     <t>Wontrucka Sonia</t>
   </si>
   <si>
@@ -110,6 +104,18 @@
   </si>
   <si>
     <t>Gąsiewski Tomasz</t>
+  </si>
+  <si>
+    <t>Karol Adamczyk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Miśta Miłosz</t>
+  </si>
+  <si>
+    <t>Wiśniewska Justyna</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -582,6 +588,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,9 +644,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -974,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,25 +1014,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,8 +1048,12 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1047,8 +1071,12 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1066,8 +1094,12 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1085,8 +1117,12 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1104,8 +1140,12 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1115,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1123,8 +1163,12 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1142,8 +1186,12 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1161,8 +1209,12 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1180,8 +1232,12 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1199,8 +1255,12 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1210,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -1218,8 +1278,12 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1229,7 +1293,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1237,8 +1301,12 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1248,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1256,8 +1324,12 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1267,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -1275,8 +1347,12 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1286,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -1294,8 +1370,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1305,7 +1385,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1313,8 +1393,12 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1324,7 +1408,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1332,18 +1416,22 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1351,8 +1439,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1362,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1370,8 +1462,12 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1381,7 +1477,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1389,8 +1485,12 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1400,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1408,8 +1508,12 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1419,7 +1523,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1427,8 +1531,12 @@
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1438,7 +1546,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1446,14 +1554,38 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:I24">
+  <conditionalFormatting sqref="C2:I24 C25:F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/listy/Lista_istnienia.xlsx
+++ b/listy/Lista_istnienia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20640" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15600" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Lista_studentow" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Lp</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Wiśniewska Justyna</t>
+  </si>
+  <si>
+    <t>zaj1b</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1009,7 @@
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,8 +1037,11 @@
       <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1054,11 +1060,18 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1077,11 +1090,18 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1100,11 +1120,18 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1123,11 +1150,18 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1146,11 +1180,18 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1169,11 +1210,18 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1192,11 +1240,18 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1215,11 +1270,18 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1238,11 +1300,18 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1261,11 +1330,18 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1284,11 +1360,18 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1307,11 +1390,18 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1330,11 +1420,18 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1353,11 +1450,18 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1376,11 +1480,18 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1393,17 +1504,24 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
+      <c r="E17" s="1">
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1422,11 +1540,18 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1445,11 +1570,18 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1468,11 +1600,18 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1491,11 +1630,18 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1514,11 +1660,18 @@
       <c r="F22" s="1">
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1537,11 +1690,18 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1560,11 +1720,18 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1583,10 +1750,31 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:I24 C25:F25">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C2:I24 C25:H25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J25">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
